--- a/dataset-1/2-with_data_augmentation/results/gan.xlsx
+++ b/dataset-1/2-with_data_augmentation/results/gan.xlsx
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:4">
